--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditto Castform\Documents\Uniandes\Cuarto Semestre\Sistemas transaccionales\Iteraciones\Iteracion 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditto Castform\Documents\Uniandes\Cuarto Semestre\Sistemas transaccionales\Iteraciones\Iteracion 2\Aver\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
   <si>
     <t>edad</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>solo para hotel, hostal y viviendas universitarias</t>
+  </si>
+  <si>
+    <t>personas</t>
+  </si>
+  <si>
+    <t>cantidad de personas en la reserva</t>
   </si>
 </sst>
 </file>
@@ -826,6 +832,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -842,33 +875,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1209,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,31 +1233,31 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -1398,31 +1404,31 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -1639,11 +1645,11 @@
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -1659,11 +1665,11 @@
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -1866,11 +1872,11 @@
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
@@ -1886,11 +1892,11 @@
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
@@ -1991,11 +1997,11 @@
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -2011,11 +2017,11 @@
       <c r="A65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="37"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
@@ -2103,165 +2109,176 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B77" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="34"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="C77" s="27"/>
+      <c r="D77" s="28"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B78" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B79" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="37"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B80" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D80" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -2271,9 +2288,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
   <si>
     <t>edad</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>cantidad de personas en la reserva</t>
+  </si>
+  <si>
+    <t>deshabilitada</t>
+  </si>
+  <si>
+    <t>indica si la oferta está deshabilitada</t>
   </si>
 </sst>
 </file>
@@ -832,6 +838,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -839,24 +863,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1215,17 +1221,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1645,31 +1651,31 @@
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -1872,31 +1878,31 @@
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
@@ -1978,102 +1984,102 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B64" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B65" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B66" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>2</v>
@@ -2081,13 +2087,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>2</v>
@@ -2095,13 +2101,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>2</v>
@@ -2109,13 +2115,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>2</v>
@@ -2123,177 +2129,191 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B78" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B79" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B80" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D81" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B86" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B66:D66"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="151">
   <si>
     <t>edad</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>indica si la oferta está deshabilitada</t>
+  </si>
+  <si>
+    <t>idmaestro</t>
+  </si>
+  <si>
+    <t>id de la posible granreserva que lo incluye</t>
   </si>
 </sst>
 </file>
@@ -838,6 +844,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -863,24 +887,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1221,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,31 +1245,31 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -1410,31 +1416,31 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -1651,31 +1657,31 @@
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -1878,31 +1884,31 @@
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
@@ -2017,31 +2023,31 @@
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
@@ -2169,142 +2175,148 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B79" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B80" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B81" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="31"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+      <c r="C81" s="36"/>
+      <c r="D81" s="37"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D82" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B87" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D87" s="9" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -2314,6 +2326,12 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="153">
   <si>
     <t>edad</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>id de la posible granreserva que lo incluye</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>NN,CK(in{cancelada,activa,terminada})</t>
   </si>
 </sst>
 </file>
@@ -844,6 +850,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -860,33 +893,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1227,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,31 +1251,31 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -1416,31 +1422,31 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -1657,31 +1663,31 @@
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -1884,31 +1890,31 @@
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
@@ -2023,31 +2029,31 @@
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="37"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
@@ -2189,134 +2195,154 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="B78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B80" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B81" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B82" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="37"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B83" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="B88" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D88" s="9" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -2326,12 +2352,6 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditto Castform\Documents\Uniandes\Cuarto Semestre\Sistemas transaccionales\Iteraciones\Iteracion 2\Aver\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\dv.gonzalez10\Documents\sistrans\AlohandesDianaEIvy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación" sheetId="2" r:id="rId1"/>
@@ -806,17 +806,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,56 +823,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -894,6 +855,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,23 +1027,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1040,23 +1062,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1235,211 +1240,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -1448,898 +1457,908 @@
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+    </row>
+    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
+    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="14" t="s">
+      <c r="B61" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+      <c r="C66" s="44"/>
+      <c r="D66" s="45"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="B78" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="D78" s="26"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="28"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="C82" s="44"/>
+      <c r="D82" s="45"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="D85" s="22"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="D86" s="22"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="26" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
@@ -2352,6 +2371,12 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\dv.gonzalez10\Documents\sistrans\AlohandesDianaEIvy\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditto Castform\Documents\Uniandes\Cuarto Semestre\Sistemas transaccionales\Iteraciones\Iteracion 2\Aver\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación" sheetId="2" r:id="rId1"/>
@@ -358,128 +358,128 @@
     <t>tipo del alojamiento</t>
   </si>
   <si>
+    <t>cantidad de estrellas de hotel</t>
+  </si>
+  <si>
+    <t>RUT del operador</t>
+  </si>
+  <si>
+    <t>cédula de la persona</t>
+  </si>
+  <si>
+    <t>edad de la persona</t>
+  </si>
+  <si>
+    <t>cédula del usuario</t>
+  </si>
+  <si>
+    <t>edad del usuario</t>
+  </si>
+  <si>
+    <t>nombre del usuario</t>
+  </si>
+  <si>
+    <t>telefono del usuario</t>
+  </si>
+  <si>
+    <t>Solo si es hotel, hostal o vivienda universitaria</t>
+  </si>
+  <si>
+    <t>CK(&gt;=0, &lt;=5) Solo si es hotel</t>
+  </si>
+  <si>
+    <t>NN Solo si es Hotel, o hostal</t>
+  </si>
+  <si>
+    <t>NN, CK(&gt;=0), solo para Hoteles y Hostales y viviendas universitarias</t>
+  </si>
+  <si>
+    <t>NN, CK(&gt;=0 and &lt;=23) Solo para Hostales</t>
+  </si>
+  <si>
+    <t>NN Solo para Personas Naturales y Comunidad</t>
+  </si>
+  <si>
+    <t>NN, CK(&gt;=18) Solo para personas Naturales y Comunidad</t>
+  </si>
+  <si>
+    <t>FK(operadores.id) solo en responsables</t>
+  </si>
+  <si>
+    <t>fechainicio</t>
+  </si>
+  <si>
+    <t>NN,FK(usuarios.id)</t>
+  </si>
+  <si>
+    <t>fecharealizacion</t>
+  </si>
+  <si>
+    <t>fechafin</t>
+  </si>
+  <si>
+    <t>indica si el alojamiento tiene menaje</t>
+  </si>
+  <si>
+    <t>indica si el alojamiento está amoblado</t>
+  </si>
+  <si>
+    <t>numero de habitaciones del alojamiento</t>
+  </si>
+  <si>
+    <t>operador a cargo del alojamiento</t>
+  </si>
+  <si>
+    <t>dirección del alojamiento</t>
+  </si>
+  <si>
+    <t>numeroHabitacion</t>
+  </si>
+  <si>
+    <t>(=1 or =0), solo para apartamento, vivienda comunidad</t>
+  </si>
+  <si>
+    <t>(=1 or =0) solo para apartamento</t>
+  </si>
+  <si>
+    <t>(&gt;0),  solo para apartamento, vivienda comunidad</t>
+  </si>
+  <si>
+    <t>(&gt;=0 and &lt;=30), solo para vivienda comunidad</t>
+  </si>
+  <si>
+    <t>CK (in {suite,semisuite, estandar})  solo para hotel</t>
+  </si>
+  <si>
+    <t>solo para hotel, hostal y viviendas universitarias</t>
+  </si>
+  <si>
+    <t>personas</t>
+  </si>
+  <si>
+    <t>cantidad de personas en la reserva</t>
+  </si>
+  <si>
+    <t>deshabilitada</t>
+  </si>
+  <si>
+    <t>indica si la oferta está deshabilitada</t>
+  </si>
+  <si>
+    <t>idmaestro</t>
+  </si>
+  <si>
+    <t>id de la posible granreserva que lo incluye</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>NN,CK(in{cancelada,activa,terminada})</t>
+  </si>
+  <si>
     <t>NN, CK(in{habhot, aparta,
-vivcom, habita,  habuni})</t>
-  </si>
-  <si>
-    <t>cantidad de estrellas de hotel</t>
-  </si>
-  <si>
-    <t>RUT del operador</t>
-  </si>
-  <si>
-    <t>cédula de la persona</t>
-  </si>
-  <si>
-    <t>edad de la persona</t>
-  </si>
-  <si>
-    <t>cédula del usuario</t>
-  </si>
-  <si>
-    <t>edad del usuario</t>
-  </si>
-  <si>
-    <t>nombre del usuario</t>
-  </si>
-  <si>
-    <t>telefono del usuario</t>
-  </si>
-  <si>
-    <t>Solo si es hotel, hostal o vivienda universitaria</t>
-  </si>
-  <si>
-    <t>CK(&gt;=0, &lt;=5) Solo si es hotel</t>
-  </si>
-  <si>
-    <t>NN Solo si es Hotel, o hostal</t>
-  </si>
-  <si>
-    <t>NN, CK(&gt;=0), solo para Hoteles y Hostales y viviendas universitarias</t>
-  </si>
-  <si>
-    <t>NN, CK(&gt;=0 and &lt;=23) Solo para Hostales</t>
-  </si>
-  <si>
-    <t>NN Solo para Personas Naturales y Comunidad</t>
-  </si>
-  <si>
-    <t>NN, CK(&gt;=18) Solo para personas Naturales y Comunidad</t>
-  </si>
-  <si>
-    <t>FK(operadores.id) solo en responsables</t>
-  </si>
-  <si>
-    <t>fechainicio</t>
-  </si>
-  <si>
-    <t>NN,FK(usuarios.id)</t>
-  </si>
-  <si>
-    <t>fecharealizacion</t>
-  </si>
-  <si>
-    <t>fechafin</t>
-  </si>
-  <si>
-    <t>indica si el alojamiento tiene menaje</t>
-  </si>
-  <si>
-    <t>indica si el alojamiento está amoblado</t>
-  </si>
-  <si>
-    <t>numero de habitaciones del alojamiento</t>
-  </si>
-  <si>
-    <t>operador a cargo del alojamiento</t>
-  </si>
-  <si>
-    <t>dirección del alojamiento</t>
-  </si>
-  <si>
-    <t>numeroHabitacion</t>
-  </si>
-  <si>
-    <t>(=1 or =0), solo para apartamento, vivienda comunidad</t>
-  </si>
-  <si>
-    <t>(=1 or =0) solo para apartamento</t>
-  </si>
-  <si>
-    <t>(&gt;0),  solo para apartamento, vivienda comunidad</t>
-  </si>
-  <si>
-    <t>(&gt;=0 and &lt;=30), solo para vivienda comunidad</t>
-  </si>
-  <si>
-    <t>CK (in {suite,semisuite, estandar})  solo para hotel</t>
-  </si>
-  <si>
-    <t>solo para hotel, hostal y viviendas universitarias</t>
-  </si>
-  <si>
-    <t>personas</t>
-  </si>
-  <si>
-    <t>cantidad de personas en la reserva</t>
-  </si>
-  <si>
-    <t>deshabilitada</t>
-  </si>
-  <si>
-    <t>indica si la oferta está deshabilitada</t>
-  </si>
-  <si>
-    <t>idmaestro</t>
-  </si>
-  <si>
-    <t>id de la posible granreserva que lo incluye</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>NN,CK(in{cancelada,activa,terminada})</t>
+vivcom, habita,  habuni, habhos})</t>
   </si>
 </sst>
 </file>
@@ -838,6 +838,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -845,39 +923,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -888,51 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,6 +1027,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1062,6 +1079,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1240,49 +1274,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1296,1069 +1330,1075 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D28" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="25" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="24" t="s">
         <v>111</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="42"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B72" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="22" t="s">
+      <c r="C72" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="22" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D76" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="21" t="s">
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="C78" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="26"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="39"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="27"/>
+      <c r="D80" s="28"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="45"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="33"/>
+      <c r="D82" s="34"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="22"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="22"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="20" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
@@ -2371,12 +2411,6 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditto Castform\Documents\Uniandes\Cuarto Semestre\Sistemas transaccionales\Iteraciones\Iteracion 2\Aver\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanes_000\Dropbox\201801\sistrans\AlohandesDianaEIvy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="165">
   <si>
     <t>edad</t>
   </si>
@@ -480,12 +480,48 @@
   <si>
     <t>NN, CK(in{habhot, aparta,
 vivcom, habita,  habuni, habhos})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotel </t>
+  </si>
+  <si>
+    <t>hostal</t>
+  </si>
+  <si>
+    <t>pernat</t>
+  </si>
+  <si>
+    <t>percom</t>
+  </si>
+  <si>
+    <t>vivuni</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1-1000</t>
+  </si>
+  <si>
+    <t>1001-2000</t>
+  </si>
+  <si>
+    <t>2001-3000</t>
+  </si>
+  <si>
+    <t>3001-4000</t>
+  </si>
+  <si>
+    <t>4001-5000</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -870,6 +906,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1027,23 +1073,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1079,23 +1108,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1272,51 +1284,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1428,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1442,7 +1459,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>108</v>
       </c>
@@ -1456,42 +1473,57 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1504,8 +1536,24 @@
       <c r="D18" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="26"/>
+      <c r="G18" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -1518,8 +1566,26 @@
       <c r="D19" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1532,8 +1598,26 @@
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1546,8 +1630,26 @@
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1560,8 +1662,26 @@
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1574,8 +1694,26 @@
       <c r="D23" s="16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1588,8 +1726,18 @@
       <c r="D24" s="16" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -1602,8 +1750,20 @@
       <c r="D25" s="16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F25" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1616,8 +1776,22 @@
       <c r="D26" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1630,8 +1804,22 @@
       <c r="D27" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
@@ -1644,8 +1832,18 @@
       <c r="D28" s="16" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -1658,8 +1856,18 @@
       <c r="D29" s="16" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F29" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1672,8 +1880,20 @@
       <c r="D30" s="16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -1686,8 +1906,20 @@
       <c r="D31" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>7</v>
       </c>
@@ -1700,43 +1932,61 @@
       <c r="D32" s="14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+    </row>
+    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +2014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
@@ -1778,7 +2028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -1792,7 +2042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>92</v>
       </c>
@@ -1806,7 +2056,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
@@ -1820,7 +2070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
@@ -1834,7 +2084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
@@ -1848,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>96</v>
       </c>
@@ -1862,7 +2112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
@@ -1876,7 +2126,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>103</v>
       </c>
@@ -1890,7 +2140,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>137</v>
       </c>
@@ -1904,7 +2154,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>22</v>
       </c>
@@ -1918,7 +2168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>7</v>
       </c>
@@ -1932,42 +2182,42 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +2245,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -2009,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
@@ -2021,7 +2271,7 @@
       </c>
       <c r="D58" s="16"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>19</v>
       </c>
@@ -2033,7 +2283,7 @@
       </c>
       <c r="D59" s="16"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>22</v>
       </c>
@@ -2047,7 +2297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
@@ -2061,7 +2311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>146</v>
       </c>
@@ -2075,42 +2325,42 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2388,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>106</v>
       </c>
@@ -2152,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>130</v>
       </c>
@@ -2166,7 +2416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>128</v>
       </c>
@@ -2180,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>131</v>
       </c>
@@ -2194,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>144</v>
       </c>
@@ -2208,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +2472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>78</v>
       </c>
@@ -2236,7 +2486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>80</v>
       </c>
@@ -2250,7 +2500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>150</v>
       </c>
@@ -2264,7 +2514,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>148</v>
       </c>
@@ -2276,42 +2526,42 @@
       </c>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="28"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="34"/>
+      <c r="D81" s="35"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="34"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="37"/>
+      <c r="D82" s="38"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>10</v>
       </c>
@@ -2339,7 +2589,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2601,7 @@
       </c>
       <c r="D85" s="16"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
@@ -2363,7 +2613,7 @@
       </c>
       <c r="D86" s="16"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>78</v>
       </c>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanes_000\Dropbox\201801\sistrans\AlohandesDianaEIvy\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ditto Castform\Documents\Uniandes\Cuarto Semestre\Sistemas transaccionales\Iteraciones\Iteracion 2\Aver\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="171">
   <si>
     <t>edad</t>
   </si>
@@ -516,12 +516,30 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>ciudad de origen del usuario</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>VARCHAR (5)</t>
+  </si>
+  <si>
+    <t>genero del usuario</t>
+  </si>
+  <si>
+    <t>NN, CK(in{M,F})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,6 +935,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -942,42 +996,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,6 +1091,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1108,6 +1143,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1284,56 +1336,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1431,7 +1483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1445,193 +1497,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D15" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="G17" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="G19" t="s">
         <v>159</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>160</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>161</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J19" t="s">
         <v>162</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H20" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I20" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J20" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K20" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>158</v>
@@ -1649,21 +1665,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>158</v>
@@ -1681,131 +1697,141 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F25" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="26" t="s">
+      <c r="G25" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J25" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="K25" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>38</v>
-      </c>
       <c r="G26" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>158</v>
-      </c>
+      <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>158</v>
@@ -1815,852 +1841,906 @@
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>158</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K28" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>158</v>
+      </c>
       <c r="H29" s="28" t="s">
         <v>158</v>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K29" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="K30" s="26"/>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F33" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="K31" s="26"/>
-    </row>
-    <row r="32" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B34" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C34" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G34" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H34" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I34" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J34" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K34" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B36" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B37" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B38" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+    </row>
+    <row r="39" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B39" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D40" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B48" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C48" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B49" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B50" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D51" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+    <row r="52" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C52" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D52" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B54" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B55" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B56" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B57" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D57" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B58" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D58" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D59" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="16"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B62" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D62" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B63" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D63" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B64" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D64" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B66" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="C66" s="43"/>
+      <c r="D66" s="44"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B67" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B68" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="C68" s="49"/>
+      <c r="D68" s="50"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B69" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C69" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D69" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B70" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D70" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B71" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D78" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B80" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="D80" s="20"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B82" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="C82" s="43"/>
+      <c r="D82" s="44"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B83" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="C83" s="46"/>
+      <c r="D83" s="47"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B84" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="38"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="C84" s="49"/>
+      <c r="D84" s="50"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C85" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D85" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="16"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="16"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D89" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B90" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C90" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D90" s="20" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="182">
   <si>
     <t>edad</t>
   </si>
@@ -534,6 +534,39 @@
   </si>
   <si>
     <t>NN, CK(in{M,F})</t>
+  </si>
+  <si>
+    <t>gimnasio</t>
+  </si>
+  <si>
+    <t>guarderia</t>
+  </si>
+  <si>
+    <t>roomservice</t>
+  </si>
+  <si>
+    <t>lavanderia</t>
+  </si>
+  <si>
+    <t>parqueadero</t>
+  </si>
+  <si>
+    <t>cocina</t>
+  </si>
+  <si>
+    <t>desayuno</t>
+  </si>
+  <si>
+    <t>terraza</t>
+  </si>
+  <si>
+    <t>jacuzzi</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>television</t>
   </si>
 </sst>
 </file>
@@ -935,6 +968,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -969,33 +1029,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82:F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,31 +1392,31 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1562,31 +1595,31 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="G19" t="s">
         <v>159</v>
       </c>
@@ -2040,31 +2073,31 @@
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -2271,31 +2304,31 @@
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
@@ -2414,31 +2447,31 @@
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="44"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="47"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="38"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
@@ -2606,42 +2639,51 @@
       </c>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="47"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="34"/>
+      <c r="D83" s="35"/>
+      <c r="F83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="50"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
+      <c r="F84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>6</v>
       </c>
@@ -2654,8 +2696,11 @@
       <c r="D85" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>10</v>
       </c>
@@ -2668,8 +2713,11 @@
       <c r="D86" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>59</v>
       </c>
@@ -2680,8 +2728,11 @@
         <v>86</v>
       </c>
       <c r="D87" s="16"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>88</v>
       </c>
@@ -2692,8 +2743,11 @@
         <v>89</v>
       </c>
       <c r="D88" s="16"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>19</v>
       </c>
@@ -2706,8 +2760,11 @@
       <c r="D89" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>78</v>
       </c>
@@ -2720,9 +2777,38 @@
       <c r="D90" s="20" t="s">
         <v>79</v>
       </c>
+      <c r="F90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B84:D84"/>
@@ -2735,12 +2821,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/Documentación Base de datos.xlsx
+++ b/docs/Documentación Base de datos.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Documentación" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -968,6 +968,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -993,42 +1029,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82:F94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,31 +1392,31 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1595,31 +1595,31 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="G19" t="s">
         <v>159</v>
       </c>
@@ -2073,31 +2073,31 @@
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -2304,31 +2304,31 @@
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
@@ -2447,31 +2447,31 @@
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="44"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="50"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
@@ -2648,11 +2648,11 @@
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="44"/>
       <c r="F82" t="s">
         <v>181</v>
       </c>
@@ -2661,11 +2661,11 @@
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="47"/>
       <c r="F83" t="s">
         <v>180</v>
       </c>
@@ -2674,11 +2674,11 @@
       <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="38"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="50"/>
       <c r="F84" t="s">
         <v>179</v>
       </c>
@@ -2803,12 +2803,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B84:D84"/>
@@ -2821,6 +2815,12 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
